--- a/test_1.xlsx
+++ b/test_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\travers_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29F9EA3B-A15F-4DAC-BDC5-2A713E450F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E7682-F41E-4108-8775-94C1EB0735DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{32A433D8-300E-4FB8-B445-37A2FC76C09B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>jan</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>totals</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -402,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E89217-F832-41C5-B88B-152EC03D48B5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -434,8 +440,11 @@
       <c r="D2">
         <v>10000</v>
       </c>
+      <c r="E2">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -448,8 +457,11 @@
       <c r="D3">
         <v>17000</v>
       </c>
+      <c r="E3">
+        <v>17000</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -464,6 +476,10 @@
       <c r="D4">
         <f>D3-D2</f>
         <v>7000</v>
+      </c>
+      <c r="E4">
+        <f>E3-E2</f>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
